--- a/2022/Price List/Symphony Price List - 15.02.202.xlsx
+++ b/2022/Price List/Symphony Price List - 15.02.202.xlsx
@@ -277,9 +277,6 @@
     <t>Z33  (3GB+32GB)</t>
   </si>
   <si>
-    <t>+8801715116767</t>
-  </si>
-  <si>
     <t>V138 (2GB+32GB)</t>
   </si>
   <si>
@@ -307,13 +304,16 @@
     <t>8MP+2MP+5MP</t>
   </si>
   <si>
-    <t>Last Updated on: 15/02/2022</t>
-  </si>
-  <si>
     <t>Z45  (3GB+32GB)</t>
   </si>
   <si>
     <t>13MP+2MP+8MP</t>
+  </si>
+  <si>
+    <t>Last Updated on: 19/02/2022</t>
+  </si>
+  <si>
+    <t>+8801717436223</t>
   </si>
 </sst>
 </file>
@@ -733,25 +733,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,46 +766,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3149,8 +3149,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,23 +3180,23 @@
       <c r="A2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3222,7 +3222,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3240,12 +3240,12 @@
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -3263,12 +3263,12 @@
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -3286,12 +3286,12 @@
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -3309,12 +3309,12 @@
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -3332,12 +3332,12 @@
       <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -3355,12 +3355,12 @@
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3378,12 +3378,12 @@
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -3401,12 +3401,12 @@
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -3424,12 +3424,12 @@
       <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -3447,12 +3447,12 @@
       <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="18">
         <v>11</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -3470,12 +3470,12 @@
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="18">
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3493,12 +3493,12 @@
       <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="18">
         <v>13</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -3516,12 +3516,12 @@
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="18">
         <v>14</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -3539,12 +3539,12 @@
       <c r="F18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="18">
         <v>15</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3562,12 +3562,12 @@
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="18">
         <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -3585,12 +3585,12 @@
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="18">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3608,12 +3608,12 @@
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="18">
         <v>18</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -3631,12 +3631,12 @@
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="18">
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -3654,12 +3654,12 @@
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -3677,12 +3677,12 @@
       <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3700,12 +3700,12 @@
       <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -3723,12 +3723,12 @@
       <c r="F26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -3746,12 +3746,12 @@
       <c r="F27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -3769,12 +3769,12 @@
       <c r="F28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="18">
         <v>26</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -3792,12 +3792,12 @@
       <c r="F29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3815,12 +3815,12 @@
       <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -3838,21 +3838,21 @@
       <c r="F31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="35"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="18">
         <v>1</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -3870,12 +3870,12 @@
       <c r="F33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="18">
         <v>2</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -3893,12 +3893,12 @@
       <c r="F34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="18">
         <v>3</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -3916,12 +3916,12 @@
       <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="18">
         <v>4</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -3939,12 +3939,12 @@
       <c r="F36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="18">
         <v>5</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -3962,16 +3962,16 @@
       <c r="F37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="18">
         <v>6</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="6">
         <v>6570</v>
@@ -3980,21 +3980,21 @@
         <v>6990</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="33" t="s">
-        <v>95</v>
+      <c r="G38" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="18">
         <v>7</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="6">
         <v>6100</v>
@@ -4003,17 +4003,17 @@
         <v>6490</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="33" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="A40" s="18">
         <v>8</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -4031,12 +4031,12 @@
       <c r="F40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="18">
         <v>9</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -4054,12 +4054,12 @@
       <c r="F41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="18">
         <v>10</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -4077,12 +4077,12 @@
       <c r="F42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="18">
         <v>11</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -4100,16 +4100,16 @@
       <c r="F43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="18">
         <v>12</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6">
         <v>7980</v>
@@ -4121,14 +4121,14 @@
         <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="18">
         <v>13</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -4146,12 +4146,12 @@
       <c r="F45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="33" t="s">
-        <v>98</v>
+      <c r="G45" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+      <c r="A46" s="18">
         <v>14</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -4169,12 +4169,12 @@
       <c r="F46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
+      <c r="A47" s="18">
         <v>15</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -4192,12 +4192,12 @@
       <c r="F47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
@@ -4213,16 +4213,16 @@
       <c r="F48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="18">
         <v>16</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="6">
         <v>9580</v>
@@ -4236,42 +4236,42 @@
       <c r="F49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="37"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
   </sheetData>
   <sortState ref="B34:G46">

--- a/2022/Price List/Symphony Price List - 15.02.202.xlsx
+++ b/2022/Price List/Symphony Price List - 15.02.202.xlsx
@@ -259,9 +259,6 @@
     <t>L33</t>
   </si>
   <si>
-    <t>i69 (2GB+16GB)</t>
-  </si>
-  <si>
     <t>5.7''</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>50000mAh</t>
   </si>
   <si>
-    <t>i99 (2GB+32GB)</t>
-  </si>
-  <si>
     <t>5.7"</t>
   </si>
   <si>
@@ -310,10 +304,16 @@
     <t>13MP+2MP+8MP</t>
   </si>
   <si>
-    <t>Last Updated on: 19/02/2022</t>
-  </si>
-  <si>
     <t>+8801717436223</t>
+  </si>
+  <si>
+    <t>i99 (2GB+16GB)</t>
+  </si>
+  <si>
+    <t>i69 (2GB+32GB)</t>
+  </si>
+  <si>
+    <t>Last Updated on: 24/02/2022</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,12 +773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,13 +825,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>204721</xdr:colOff>
+      <xdr:colOff>166960</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>387219</xdr:colOff>
+      <xdr:colOff>273936</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
@@ -856,10 +850,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="11166324"/>
-          <a:ext cx="4706873" cy="260052"/>
-          <a:chOff x="249" y="249"/>
-          <a:chExt cx="272" cy="258"/>
+          <a:off x="166960" y="11166324"/>
+          <a:ext cx="5059976" cy="260052"/>
+          <a:chOff x="247" y="249"/>
+          <a:chExt cx="268" cy="258"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -877,8 +871,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="348" y="338"/>
-            <a:ext cx="8" cy="141"/>
+            <a:off x="343" y="303"/>
+            <a:ext cx="7" cy="176"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1083,7 +1077,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="512" y="320"/>
+            <a:off x="506" y="320"/>
             <a:ext cx="9" cy="162"/>
           </a:xfrm>
           <a:custGeom>
@@ -2184,7 +2178,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="249" y="330"/>
+            <a:off x="247" y="302"/>
             <a:ext cx="8" cy="163"/>
           </a:xfrm>
           <a:custGeom>
@@ -3149,19 +3143,19 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -3188,15 +3182,15 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3249,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5">
         <v>960</v>
@@ -3843,13 +3837,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
@@ -3947,8 +3941,8 @@
       <c r="A37" s="18">
         <v>5</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>80</v>
+      <c r="B37" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C37" s="6">
         <v>6500</v>
@@ -3957,10 +3951,10 @@
         <v>6990</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>73</v>
@@ -3970,8 +3964,8 @@
       <c r="A38" s="18">
         <v>6</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>92</v>
+      <c r="B38" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="C38" s="6">
         <v>6570</v>
@@ -3980,13 +3974,13 @@
         <v>6990</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="6">
         <v>6100</v>
@@ -4003,13 +3997,13 @@
         <v>6490</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="6">
         <v>7700</v>
@@ -4109,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="6">
         <v>7980</v>
@@ -4121,7 +4115,7 @@
         <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>42</v>
@@ -4132,7 +4126,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="6">
         <v>8490</v>
@@ -4147,7 +4141,7 @@
         <v>32</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,7 +4191,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="18">
+        <v>16</v>
+      </c>
       <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
@@ -4219,10 +4215,10 @@
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="6">
         <v>9580</v>
@@ -4237,12 +4233,12 @@
         <v>32</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="31" t="s">
@@ -4250,19 +4246,19 @@
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="34"/>
+      <c r="G50" s="32"/>
     </row>
     <row r="51" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -4290,6 +4286,9 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A50" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2022/Price List/Symphony Price List - 15.02.202.xlsx
+++ b/2022/Price List/Symphony Price List - 15.02.202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
   <si>
     <t>Model Name</t>
   </si>
@@ -292,15 +292,6 @@
     <t>50000mAh</t>
   </si>
   <si>
-    <t>5.7"</t>
-  </si>
-  <si>
-    <t>8MP+2MP+5MP</t>
-  </si>
-  <si>
-    <t>Z45  (3GB+32GB)</t>
-  </si>
-  <si>
     <t>13MP+2MP+8MP</t>
   </si>
   <si>
@@ -313,7 +304,13 @@
     <t>i69 (2GB+32GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 24/02/2022</t>
+    <t>6.09''</t>
+  </si>
+  <si>
+    <t>Z45  (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>Last Updated on: 28/02/2022</t>
   </si>
 </sst>
 </file>
@@ -775,10 +772,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3143,8 +3140,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -3942,7 +3939,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6">
         <v>6500</v>
@@ -3965,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" s="6">
         <v>6570</v>
@@ -3974,13 +3971,13 @@
         <v>6990</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,7 +4138,7 @@
         <v>32</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4218,7 +4215,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C49" s="6">
         <v>9580</v>
@@ -4233,12 +4230,12 @@
         <v>32</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="31" t="s">
@@ -4249,15 +4246,15 @@
       <c r="F50" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="32"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">

--- a/2022/Price List/Symphony Price List - 15.02.202.xlsx
+++ b/2022/Price List/Symphony Price List - 15.02.202.xlsx
@@ -3140,8 +3140,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Price List/Symphony Price List - 15.02.202.xlsx
+++ b/2022/Price List/Symphony Price List - 15.02.202.xlsx
@@ -3140,8 +3140,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
